--- a/Figures/Fig. 3/Fig. 3 urban change rate decomposition (adj).xlsx
+++ b/Figures/Fig. 3/Fig. 3 urban change rate decomposition (adj).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csuen/Desktop/Sun-NCR-23/Analysis/Fig. 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csuen/Documents/GitHub/ozone-cardiovascular/Figures/Fig. 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD7090-E48E-8F48-A0A4-F5FFFCF67713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C9958D-FDFB-C648-912A-3DE605D93F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="2500" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>Central Asia</t>
   </si>
   <si>
-    <t>Eastern Asia</t>
-  </si>
-  <si>
     <t>Eastern Europe</t>
   </si>
   <si>
@@ -149,6 +146,10 @@
   </si>
   <si>
     <t>Other Oceania</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1108,7 +1109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1117,7 +1120,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1153,22 +1156,22 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1176,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -1285,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2658.8992998293802</v>
@@ -1347,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>9700.9859926201498</v>
@@ -1409,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>8196.1740527761995</v>
@@ -1471,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>14165.8212243993</v>
@@ -1595,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>27673.773023154601</v>
@@ -1657,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>602.71679077406498</v>
@@ -1781,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>3577.0673813237299</v>
@@ -1905,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>10469.333094101999</v>
@@ -1967,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -1987,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>32678.618906052499</v>
@@ -2111,7 +2114,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>2345.1194283656801</v>
@@ -2173,7 +2176,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>1268.2640279505099</v>
@@ -2235,7 +2238,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2255,7 +2258,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2275,7 +2278,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
